--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220515_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220515_110800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="268">
   <si>
     <t>사이트</t>
   </si>
@@ -733,7 +733,7 @@
     <t>SHOFAR</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>SM</t>
@@ -818,9 +818,6 @@
   </si>
   <si>
     <t>MusicFarm</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1230,7 @@
         <v>228</v>
       </c>
       <c r="H2" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1259,7 +1256,7 @@
         <v>229</v>
       </c>
       <c r="H3" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1311,7 +1308,7 @@
         <v>231</v>
       </c>
       <c r="H5" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1337,7 +1334,7 @@
         <v>232</v>
       </c>
       <c r="H6" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1363,7 +1360,7 @@
         <v>233</v>
       </c>
       <c r="H7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1389,7 +1386,7 @@
         <v>234</v>
       </c>
       <c r="H8" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1415,7 +1412,7 @@
         <v>228</v>
       </c>
       <c r="H9" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1467,7 +1464,7 @@
         <v>228</v>
       </c>
       <c r="H11" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1493,7 +1490,7 @@
         <v>236</v>
       </c>
       <c r="H12" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1519,7 +1516,7 @@
         <v>237</v>
       </c>
       <c r="H13" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1545,7 +1542,7 @@
         <v>238</v>
       </c>
       <c r="H14" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1571,7 +1568,7 @@
         <v>239</v>
       </c>
       <c r="H15" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1623,7 +1620,7 @@
         <v>241</v>
       </c>
       <c r="H17" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1649,7 +1646,7 @@
         <v>229</v>
       </c>
       <c r="H18" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1701,7 +1698,7 @@
         <v>243</v>
       </c>
       <c r="H20" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1727,7 +1724,7 @@
         <v>229</v>
       </c>
       <c r="H21" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1779,7 +1776,7 @@
         <v>232</v>
       </c>
       <c r="H23" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1805,7 +1802,7 @@
         <v>245</v>
       </c>
       <c r="H24" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1831,7 +1828,7 @@
         <v>243</v>
       </c>
       <c r="H25" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1883,7 +1880,7 @@
         <v>246</v>
       </c>
       <c r="H27" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1909,7 +1906,7 @@
         <v>247</v>
       </c>
       <c r="H28" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1935,7 +1932,7 @@
         <v>234</v>
       </c>
       <c r="H29" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1961,7 +1958,7 @@
         <v>232</v>
       </c>
       <c r="H30" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2013,7 +2010,7 @@
         <v>229</v>
       </c>
       <c r="H32" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2039,7 +2036,7 @@
         <v>248</v>
       </c>
       <c r="H33" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2065,7 +2062,7 @@
         <v>249</v>
       </c>
       <c r="H34" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2117,7 +2114,7 @@
         <v>250</v>
       </c>
       <c r="H36" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2143,7 +2140,7 @@
         <v>231</v>
       </c>
       <c r="H37" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2169,7 +2166,7 @@
         <v>228</v>
       </c>
       <c r="H38" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2195,7 +2192,7 @@
         <v>249</v>
       </c>
       <c r="H39" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2221,7 +2218,7 @@
         <v>245</v>
       </c>
       <c r="H40" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2325,7 +2322,7 @@
         <v>245</v>
       </c>
       <c r="H44" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2351,7 +2348,7 @@
         <v>251</v>
       </c>
       <c r="H45" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2377,7 +2374,7 @@
         <v>238</v>
       </c>
       <c r="H46" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2403,7 +2400,7 @@
         <v>252</v>
       </c>
       <c r="H47" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2455,7 +2452,7 @@
         <v>229</v>
       </c>
       <c r="H49" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2481,7 +2478,7 @@
         <v>253</v>
       </c>
       <c r="H50" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2507,7 +2504,7 @@
         <v>229</v>
       </c>
       <c r="H51" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2533,7 +2530,7 @@
         <v>229</v>
       </c>
       <c r="H52" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2559,7 +2556,7 @@
         <v>254</v>
       </c>
       <c r="H53" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2585,7 +2582,7 @@
         <v>239</v>
       </c>
       <c r="H54" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2611,7 +2608,7 @@
         <v>255</v>
       </c>
       <c r="H55" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2663,7 +2660,7 @@
         <v>247</v>
       </c>
       <c r="H57" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2689,7 +2686,7 @@
         <v>256</v>
       </c>
       <c r="H58" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2715,7 +2712,7 @@
         <v>249</v>
       </c>
       <c r="H59" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2741,7 +2738,7 @@
         <v>248</v>
       </c>
       <c r="H60" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2767,7 +2764,7 @@
         <v>245</v>
       </c>
       <c r="H61" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2793,7 +2790,7 @@
         <v>239</v>
       </c>
       <c r="H62" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2819,7 +2816,7 @@
         <v>257</v>
       </c>
       <c r="H63" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2871,7 +2868,7 @@
         <v>234</v>
       </c>
       <c r="H65" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2897,7 +2894,7 @@
         <v>245</v>
       </c>
       <c r="H66" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2949,7 +2946,7 @@
         <v>259</v>
       </c>
       <c r="H68" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3027,7 +3024,7 @@
         <v>249</v>
       </c>
       <c r="H71" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3053,7 +3050,7 @@
         <v>245</v>
       </c>
       <c r="H72" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3079,7 +3076,7 @@
         <v>245</v>
       </c>
       <c r="H73" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3131,7 +3128,7 @@
         <v>245</v>
       </c>
       <c r="H75" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3157,7 +3154,7 @@
         <v>249</v>
       </c>
       <c r="H76" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3183,7 +3180,7 @@
         <v>245</v>
       </c>
       <c r="H77" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3235,7 +3232,7 @@
         <v>260</v>
       </c>
       <c r="H79" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3261,7 +3258,7 @@
         <v>261</v>
       </c>
       <c r="H80" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3287,7 +3284,7 @@
         <v>262</v>
       </c>
       <c r="H81" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3365,7 +3362,7 @@
         <v>245</v>
       </c>
       <c r="H84" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3391,7 +3388,7 @@
         <v>263</v>
       </c>
       <c r="H85" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3417,7 +3414,7 @@
         <v>260</v>
       </c>
       <c r="H86" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3443,7 +3440,7 @@
         <v>234</v>
       </c>
       <c r="H87" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3495,7 +3492,7 @@
         <v>248</v>
       </c>
       <c r="H89" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3521,7 +3518,7 @@
         <v>264</v>
       </c>
       <c r="H90" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3547,7 +3544,7 @@
         <v>231</v>
       </c>
       <c r="H91" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3573,7 +3570,7 @@
         <v>265</v>
       </c>
       <c r="H92" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3599,7 +3596,7 @@
         <v>245</v>
       </c>
       <c r="H93" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3625,7 +3622,7 @@
         <v>266</v>
       </c>
       <c r="H94" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3651,7 +3648,7 @@
         <v>241</v>
       </c>
       <c r="H95" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3703,7 +3700,7 @@
         <v>249</v>
       </c>
       <c r="H97" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3729,7 +3726,7 @@
         <v>267</v>
       </c>
       <c r="H98" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3755,7 +3752,7 @@
         <v>245</v>
       </c>
       <c r="H99" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3781,7 +3778,7 @@
         <v>245</v>
       </c>
       <c r="H100" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3804,10 +3801,10 @@
         <v>227</v>
       </c>
       <c r="G101" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="H101" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
